--- a/Internal macros/macro_38_test.xlsx
+++ b/Internal macros/macro_38_test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Germany</t>
   </si>
@@ -42,22 +42,10 @@
     <t>month</t>
   </si>
   <si>
-    <t>Stock Index</t>
+    <t>Stock Index Return</t>
   </si>
   <si>
     <t>Interest Rate</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
   </si>
 </sst>
 </file>
@@ -164,11 +152,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>11</v>
+      <c r="A10" t="n">
+        <v>2017.0</v>
       </c>
       <c r="B10" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
@@ -178,11 +166,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
+      <c r="A11" t="n">
+        <v>2017.0</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
@@ -192,11 +180,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" t="n">
+        <v>2017.0</v>
       </c>
       <c r="B12" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
@@ -206,25 +194,25 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>11</v>
+      <c r="A13" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B13" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.33</v>
+        <v>-0.325</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="A14" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C14" t="n">
         <v>-0.0</v>
@@ -234,11 +222,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>12</v>
+      <c r="A15" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C15" t="n">
         <v>-0.0</v>
@@ -248,25 +236,25 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>12</v>
+      <c r="A16" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C16" t="n">
         <v>-0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.325</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>12</v>
+      <c r="A17" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B17" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C17" t="n">
         <v>-0.0</v>
@@ -276,11 +264,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>12</v>
+      <c r="A18" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B18" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C18" t="n">
         <v>-0.0</v>
@@ -290,25 +278,25 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>12</v>
+      <c r="A19" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B19" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C19" t="n">
         <v>-0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.32</v>
+        <v>-0.315</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>12</v>
+      <c r="A20" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B20" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C20" t="n">
         <v>-0.0</v>
@@ -318,11 +306,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>12</v>
+      <c r="A21" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B21" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C21" t="n">
         <v>-0.0</v>
@@ -332,25 +320,25 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>12</v>
+      <c r="A22" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B22" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C22" t="n">
         <v>-0.0</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.315</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>12</v>
+      <c r="A23" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B23" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C23" t="n">
         <v>-0.0</v>
@@ -360,11 +348,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>12</v>
+      <c r="A24" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B24" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C24" t="n">
         <v>-0.0</v>
@@ -374,25 +362,25 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>12</v>
+      <c r="A25" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B25" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.31</v>
+        <v>-0.265</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>13</v>
+      <c r="A26" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -402,11 +390,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>13</v>
+      <c r="A27" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C27" t="n">
         <v>0.0</v>
@@ -416,25 +404,25 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>13</v>
+      <c r="A28" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B28" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C28" t="n">
         <v>0.0</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.265</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>13</v>
+      <c r="A29" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B29" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C29" t="n">
         <v>0.0</v>
@@ -444,11 +432,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>13</v>
+      <c r="A30" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B30" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C30" t="n">
         <v>0.0</v>
@@ -458,25 +446,25 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>13</v>
+      <c r="A31" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B31" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C31" t="n">
         <v>0.0</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.22</v>
+        <v>-0.175</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>13</v>
+      <c r="A32" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B32" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C32" t="n">
         <v>0.0</v>
@@ -486,11 +474,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>13</v>
+      <c r="A33" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B33" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C33" t="n">
         <v>0.0</v>
@@ -500,25 +488,25 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>13</v>
+      <c r="A34" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B34" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C34" t="n">
         <v>0.0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.175</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>13</v>
+      <c r="A35" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B35" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C35" t="n">
         <v>0.0</v>
@@ -528,11 +516,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>13</v>
+      <c r="A36" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B36" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C36" t="n">
         <v>0.0</v>
@@ -542,25 +530,25 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>13</v>
+      <c r="A37" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B37" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C37" t="n">
         <v>0.0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.13</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>14</v>
+      <c r="A38" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C38" t="n">
         <v>0.0</v>
@@ -570,11 +558,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>14</v>
+      <c r="A39" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B39" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C39" t="n">
         <v>0.0</v>
@@ -584,25 +572,25 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>14</v>
+      <c r="A40" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B40" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C40" t="n">
         <v>0.0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.06</v>
+        <v>0.010000000000000009</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>14</v>
+      <c r="A41" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B41" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C41" t="n">
         <v>0.0</v>
@@ -612,11 +600,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>14</v>
+      <c r="A42" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B42" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C42" t="n">
         <v>0.0</v>
@@ -626,25 +614,25 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>14</v>
+      <c r="A43" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B43" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C43" t="n">
         <v>0.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.010000000000000009</v>
+        <v>0.08000000000000002</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>14</v>
+      <c r="A44" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B44" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C44" t="n">
         <v>0.0</v>
@@ -654,11 +642,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>14</v>
+      <c r="A45" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B45" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C45" t="n">
         <v>0.0</v>
@@ -668,25 +656,25 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
-        <v>14</v>
+      <c r="A46" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B46" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C46" t="n">
         <v>0.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08000000000000002</v>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>14</v>
+      <c r="A47" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B47" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C47" t="n">
         <v>0.0</v>
@@ -696,30 +684,16 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>14</v>
+      <c r="A48" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B48" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C48" t="n">
         <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.15000000000000002</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D49" t="n">
         <v>0.15000000000000002</v>
       </c>
     </row>
@@ -771,11 +745,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>11</v>
+      <c r="A7" t="n">
+        <v>2017.0</v>
       </c>
       <c r="B7" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -785,11 +759,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>11</v>
+      <c r="A8" t="n">
+        <v>2017.0</v>
       </c>
       <c r="B8" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -799,11 +773,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>11</v>
+      <c r="A9" t="n">
+        <v>2017.0</v>
       </c>
       <c r="B9" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -813,25 +787,25 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>11</v>
+      <c r="A10" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B10" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>-2.9981636809439607</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.33</v>
+        <v>-0.1875</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>12</v>
+      <c r="A11" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C11" t="n">
         <v>-2.9981636809439607</v>
@@ -841,11 +815,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
+      <c r="A12" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C12" t="n">
         <v>-2.9981636809439607</v>
@@ -855,25 +829,25 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C13" t="n">
         <v>-2.9981636809439607</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1875</v>
+        <v>-0.044999999999999984</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="A14" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B14" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C14" t="n">
         <v>-2.9981636809439607</v>
@@ -883,11 +857,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>12</v>
+      <c r="A15" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B15" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C15" t="n">
         <v>-2.9981636809439607</v>
@@ -897,25 +871,25 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>12</v>
+      <c r="A16" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B16" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C16" t="n">
         <v>-2.9981636809439607</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.044999999999999984</v>
+        <v>0.09750000000000003</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>12</v>
+      <c r="A17" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B17" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C17" t="n">
         <v>-2.9981636809439607</v>
@@ -925,11 +899,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>12</v>
+      <c r="A18" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B18" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C18" t="n">
         <v>-2.9981636809439607</v>
@@ -939,25 +913,25 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>12</v>
+      <c r="A19" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B19" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C19" t="n">
         <v>-2.9981636809439607</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09750000000000003</v>
+        <v>0.24000000000000005</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>12</v>
+      <c r="A20" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B20" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C20" t="n">
         <v>-2.9981636809439607</v>
@@ -967,11 +941,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>12</v>
+      <c r="A21" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B21" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C21" t="n">
         <v>-2.9981636809439607</v>
@@ -981,25 +955,25 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>12</v>
+      <c r="A22" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B22" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.9981636809439607</v>
+        <v>0.3185661533733821</v>
       </c>
       <c r="D22" t="n">
-        <v>0.24000000000000005</v>
+        <v>0.26500000000000007</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>13</v>
+      <c r="A23" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C23" t="n">
         <v>0.3185661533733821</v>
@@ -1009,11 +983,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>13</v>
+      <c r="A24" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C24" t="n">
         <v>0.3185661533733821</v>
@@ -1023,25 +997,25 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>13</v>
+      <c r="A25" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B25" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C25" t="n">
         <v>0.3185661533733821</v>
       </c>
       <c r="D25" t="n">
-        <v>0.26500000000000007</v>
+        <v>0.2900000000000001</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>13</v>
+      <c r="A26" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B26" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.3185661533733821</v>
@@ -1051,11 +1025,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>13</v>
+      <c r="A27" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B27" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C27" t="n">
         <v>0.3185661533733821</v>
@@ -1065,25 +1039,25 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>13</v>
+      <c r="A28" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B28" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C28" t="n">
         <v>0.3185661533733821</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2900000000000001</v>
+        <v>0.3150000000000001</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>13</v>
+      <c r="A29" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B29" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C29" t="n">
         <v>0.3185661533733821</v>
@@ -1093,11 +1067,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>13</v>
+      <c r="A30" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B30" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C30" t="n">
         <v>0.3185661533733821</v>
@@ -1107,25 +1081,25 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>13</v>
+      <c r="A31" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B31" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C31" t="n">
         <v>0.3185661533733821</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3150000000000001</v>
+        <v>0.34000000000000014</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>13</v>
+      <c r="A32" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B32" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C32" t="n">
         <v>0.3185661533733821</v>
@@ -1135,11 +1109,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>13</v>
+      <c r="A33" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B33" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C33" t="n">
         <v>0.3185661533733821</v>
@@ -1149,25 +1123,25 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>13</v>
+      <c r="A34" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B34" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3185661533733821</v>
+        <v>0.6468489948535705</v>
       </c>
       <c r="D34" t="n">
-        <v>0.34000000000000014</v>
+        <v>0.39000000000000007</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>14</v>
+      <c r="A35" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C35" t="n">
         <v>0.6468489948535705</v>
@@ -1177,11 +1151,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>14</v>
+      <c r="A36" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B36" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C36" t="n">
         <v>0.6468489948535705</v>
@@ -1191,25 +1165,25 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>14</v>
+      <c r="A37" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B37" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C37" t="n">
         <v>0.6468489948535705</v>
       </c>
       <c r="D37" t="n">
-        <v>0.39000000000000007</v>
+        <v>0.4400000000000001</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>14</v>
+      <c r="A38" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B38" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C38" t="n">
         <v>0.6468489948535705</v>
@@ -1219,11 +1193,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>14</v>
+      <c r="A39" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B39" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C39" t="n">
         <v>0.6468489948535705</v>
@@ -1233,25 +1207,25 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>14</v>
+      <c r="A40" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B40" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C40" t="n">
         <v>0.6468489948535705</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4400000000000001</v>
+        <v>0.49000000000000005</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>14</v>
+      <c r="A41" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B41" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C41" t="n">
         <v>0.6468489948535705</v>
@@ -1261,11 +1235,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>14</v>
+      <c r="A42" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B42" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C42" t="n">
         <v>0.6468489948535705</v>
@@ -1275,25 +1249,25 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>14</v>
+      <c r="A43" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B43" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C43" t="n">
         <v>0.6468489948535705</v>
       </c>
       <c r="D43" t="n">
-        <v>0.49000000000000005</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>14</v>
+      <c r="A44" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B44" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C44" t="n">
         <v>0.6468489948535705</v>
@@ -1303,30 +1277,16 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>14</v>
+      <c r="A45" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B45" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C45" t="n">
         <v>0.6468489948535705</v>
       </c>
       <c r="D45" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.6468489948535705</v>
-      </c>
-      <c r="D46" t="n">
         <v>0.54</v>
       </c>
     </row>
